--- a/fuentes/contenidos/grado06/guion14/CS_06_14_CO_SolicitudVideos.xlsx
+++ b/fuentes/contenidos/grado06/guion14/CS_06_14_CO_SolicitudVideos.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCMarquez\Desktop\Videos-mat.gráfico\Videos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="9705"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -753,7 +748,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1140,7 +1135,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -1150,7 +1145,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -1160,7 +1155,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -1170,7 +1165,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -1180,7 +1175,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -1190,7 +1185,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>

--- a/fuentes/contenidos/grado06/guion14/CS_06_14_CO_SolicitudVideos.xlsx
+++ b/fuentes/contenidos/grado06/guion14/CS_06_14_CO_SolicitudVideos.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +403,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -462,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -475,6 +482,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,7 +758,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -763,7 +773,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +925,7 @@
       <c r="C6" s="4">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -967,7 +977,7 @@
       <c r="C8" s="4">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1043,7 +1053,7 @@
       <c r="C11" s="4">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="2"/>
